--- a/Scraping/Nihonkoden/Nihonkoden.xlsx
+++ b/Scraping/Nihonkoden/Nihonkoden.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,35 +448,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>カテゴリコード</t>
+          <t>カテゴリコード１</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>カテゴリコード２</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>カテゴリコード３</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>メーカーコード</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>メーカー名称</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>新着記事カテゴリ</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>新着記事タイトル</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>新着記事URL</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>新製品記事</t>
         </is>
@@ -485,25 +495,80 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20200813</t>
+          <t>2020812</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>手術室</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>医療機器管理</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>人工呼吸器</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>日本光電工業</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>「NKV-550シリーズ 人工呼吸器」を掲載しました。</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.nihonkohden.co.jp/iryo/products/resp_resus/ventilator/nkv550.html</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2020813</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>手術室</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>医療機器管理</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>人工呼吸器</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>日本光電工業</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>ME講習会　2020年9月以降の新スケジュールを公開しました。</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://www.nihonkohden.co.jp/iryo/training/index.html</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="J3" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Scraping/Nihonkoden/Nihonkoden.xlsx
+++ b/Scraping/Nihonkoden/Nihonkoden.xlsx
@@ -495,7 +495,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2020812</t>
+          <t>20200812</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -535,7 +535,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2020813</t>
+          <t>20200813</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
